--- a/data/trans_bre/EXP_TABACO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Edad-trans_bre.xlsx
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,58</t>
+          <t>9,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -640,7 +640,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,76%</t>
+          <t>84,69%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -668,12 +668,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,69; 13,76</t>
+          <t>-1,11; 21,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 15,61</t>
+          <t>-12,94; 15,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,17 +683,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,09; 9,43</t>
+          <t>-14,54; 9,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-29,26; 128,88</t>
+          <t>-14,27; 281,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 100,25</t>
+          <t>-42,02; 99,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,91; 27,35</t>
+          <t>-31,47; 28,7</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 8,29</t>
+          <t>-7,59; 10,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,12; 6,45</t>
+          <t>-16,83; 5,86</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -783,17 +783,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-21,63; -3,82</t>
+          <t>-21,08; -4,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-42,14; 67,46</t>
+          <t>-40,06; 110,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-64,7; 39,16</t>
+          <t>-66,61; 36,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,7; -11,41</t>
+          <t>-49,07; -13,25</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-4,01</t>
+          <t>-8,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-21,36%</t>
+          <t>-39,1%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -868,12 +868,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,38; 2,62</t>
+          <t>-15,12; -1,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,74</t>
+          <t>-2,33; 8,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -883,17 +883,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 0,53</t>
+          <t>-15,87; 0,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-46,45; 17,97</t>
+          <t>-60,97; -3,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 97,43</t>
+          <t>-14,95; 92,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-46,4; 2,4</t>
+          <t>-47,33; 1,39</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -968,12 +968,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 5,2</t>
+          <t>-5,42; 6,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-66,97; 5,26</t>
+          <t>-66,33; 5,72</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,17 +983,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 9,63</t>
+          <t>-4,26; 11,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-30,14; 37,42</t>
+          <t>-29,11; 52,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-82,25; 51,55</t>
+          <t>-83,43; 57,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 67,31</t>
+          <t>-20,76; 81,94</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-10,23%</t>
+          <t>-21,21%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1068,12 +1068,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 3,63</t>
+          <t>-8,36; 2,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 3,71</t>
+          <t>-5,61; 3,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1083,17 +1083,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 14,31</t>
+          <t>-4,44; 14,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-39,55; 25,31</t>
+          <t>-46,86; 18,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-34,55; 32,89</t>
+          <t>-32,29; 29,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,05; 78,29</t>
+          <t>-15,7; 75,66</t>
         </is>
       </c>
     </row>
@@ -1120,7 +1120,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>3,2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1140,7 +1140,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>10,42%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1168,12 +1168,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 5,43</t>
+          <t>-0,71; 8,15</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 5,65</t>
+          <t>-6,87; 6,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1183,17 +1183,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,01; 6,89</t>
+          <t>-11,87; 6,76</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,4; 77,98</t>
+          <t>-8,88; 144,03</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-79,66; 96,96</t>
+          <t>-77,56; 106,12</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,18; 48,54</t>
+          <t>-48,18; 46,43</t>
         </is>
       </c>
     </row>
@@ -1220,7 +1220,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1240,7 +1240,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-6,09%</t>
+          <t>-1,18%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1268,12 +1268,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,73; 2,59</t>
+          <t>-4,57; 3,57</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,55; 8,91</t>
+          <t>2,45; 8,73</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1283,17 +1283,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 6,13</t>
+          <t>-10,58; 7,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-56,73; 90,36</t>
+          <t>-56,45; 112,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>55,02; —</t>
+          <t>33,99; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-64,18; 77,71</t>
+          <t>-56,87; 89,1</t>
         </is>
       </c>
     </row>
@@ -1320,7 +1320,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,99</t>
+          <t>-0,85</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-7,19%</t>
+          <t>-6,23%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1368,12 +1368,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 1,38</t>
+          <t>-3,44; 1,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-36,32; 1,07</t>
+          <t>-36,28; 1,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1383,17 +1383,17 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,33; -0,62</t>
+          <t>-7,07; -0,05</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-20,98; 10,78</t>
+          <t>-22,7; 13,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-74,69; 9,05</t>
+          <t>-74,79; 8,11</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,66; -2,5</t>
+          <t>-25,57; -0,54</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/EXP_TABACO-Edad-trans_bre.xlsx
+++ b/data/trans_bre/EXP_TABACO-Edad-trans_bre.xlsx
@@ -556,42 +556,42 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-2,56</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>-5,31</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>9,34</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-5,31</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-2,56</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-8,15%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>-6,43%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-25,8%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>84,69%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>4,69%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-25,8%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-6,43%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-13,96; 10,46</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-14,54; 9,59</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; 2,94</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>-1,11; 21,28</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,94; 15,16</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-14,34; 2,94</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-14,54; 9,59</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>-47,2; 64,8</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-31,47; 28,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-56,39; 21,08</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>-14,27; 281,28</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-42,02; 99,46</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-56,39; 21,08</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-31,47; 28,7</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-1,62</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-12,53</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-6,7</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>1,8</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-6,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-12,53</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>-8,15%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-33,31%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-26,46%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>12,69%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-15,92%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-26,46%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-33,31%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-10,19; 6,64</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-21,08; -4,68</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-12,75; 1,33</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>-7,59; 10,86</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-16,83; 5,86</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-12,75; 1,33</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-21,08; -4,68</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>-40,3; 46,15</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-49,07; -13,25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-45,07; 6,66</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>-40,06; 110,16</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-66,61; 36,51</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-45,07; 6,66</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-49,07; -13,25</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>4,12</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-7,89</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>-6,18</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>-8,15</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,68</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-6,18</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-7,89</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>38,44%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-27,24%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-27,75%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>-39,1%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>31,43%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-27,75%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-27,24%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-0,93; 8,93</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-15,87; 0,27</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-11,89; -0,59</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>-15,12; -1,01</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,33; 8,34</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,89; -0,59</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-15,87; 0,27</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-7,33; 111,73</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-47,33; 1,39</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-46,77; -2,18</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>-60,97; -3,84</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-14,95; 92,69</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-46,77; -2,18</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-47,33; 1,39</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>2,89</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>2,86</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,57</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-32,84</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>2,86</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,89</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>39,28%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16,32%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>15,38%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>3,59%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-68,05%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,32%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>0,13; 8,44</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 11,03</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>-2,63; 8,57</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>-5,42; 6,51</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-66,33; 5,72</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-2,63; 8,57</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,26; 11,03</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>0,94; 99,21</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>-20,76; 81,94</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-12,26; 55,87</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>-29,11; 52,58</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-83,43; 57,02</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-12,26; 55,87</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-20,76; 81,94</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,87</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,45</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,6</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-3,06</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,05</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,6</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>5,45</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>-6,24%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>22,89%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-14,88%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>-21,21%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-7,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-14,88%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>22,89%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-4,99; 3,53</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-4,44; 14,32</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-10,86; 2,35</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>-8,36; 2,02</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-5,61; 3,45</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-10,86; 2,35</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-4,44; 14,32</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>-30,01; 31,51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-15,7; 75,66</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-37,69; 12,87</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>-46,86; 18,9</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-32,29; 29,07</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-37,69; 12,87</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-15,7; 75,66</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>3,2</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,82</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>84,99%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>-12,98%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-0,71%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>41,58%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-12,54%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-0,71%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-12,98%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,04; 9,59</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-11,87; 6,76</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-4,58; 4,42</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>-0,71; 8,15</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,87; 6,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-4,58; 4,42</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-11,87; 6,76</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>10,62; 232,32</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>-48,18; 46,43</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-29,61; 40,08</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>-8,88; 144,03</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-77,56; 106,12</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-29,61; 40,08</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>-48,18; 46,43</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>5,61</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-1,1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>-0,06</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,39</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>1,28</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>548,8%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-8,96%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>-1,18%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>527,08%</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>25,86%</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>-8,96%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,58; 9,27</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-10,58; 7,23</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>-2,1; 4,37</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>-4,57; 3,57</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,45; 8,73</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-2,1; 4,37</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>-10,58; 7,23</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>40,82; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>-56,87; 89,1</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-34,45; 121,72</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>-56,45; 112,5</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>33,99; —</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>-34,45; 121,72</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>-56,87; 89,1</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>1,77</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-3,72</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-2,57</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>-0,85</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-10,83</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-3,72</t>
-        </is>
-      </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>13,7%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-14,04%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-13,49%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
           <t>-6,23%</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>-44,8%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>-13,49%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>-14,04%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
+          <t>-0,86; 4,09</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; -0,05</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; -0,32</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
           <t>-3,44; 1,69</t>
         </is>
       </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-36,28; 1,08</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; -0,32</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>-7,07; -0,05</t>
-        </is>
-      </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>-5,5; 35,5</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>-25,57; -0,54</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-23,77; -1,83</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
           <t>-22,7; 13,24</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>-74,79; 8,11</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>-23,77; -1,83</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>-25,57; -0,54</t>
         </is>
       </c>
     </row>
